--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_10-52.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_10-52.xlsx
@@ -32,21 +32,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
     <t>10:1</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>GABAVERONA 300MG CAPS</t>
   </si>
   <si>
@@ -75,6 +78,12 @@
   </si>
   <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>URIPAN 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
@@ -703,7 +712,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -729,7 +738,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
@@ -749,17 +758,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -767,7 +776,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -775,17 +784,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -793,7 +802,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -801,13 +810,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -833,11 +842,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -853,17 +862,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -871,7 +880,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -879,13 +888,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>149.5</v>
+        <v>35</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -905,17 +914,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>80</v>
+        <v>149.5</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -931,17 +940,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -957,17 +966,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -975,7 +984,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -983,13 +992,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1001,7 +1010,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1009,17 +1018,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>66.640000000000001</v>
+        <v>26</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1027,7 +1036,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1035,17 +1044,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1053,7 +1062,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1061,17 +1070,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>2</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1079,7 +1088,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1087,51 +1096,103 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" ht="26.25" customHeight="1">
-      <c r="K20" s="10">
-        <v>849.13999999999999</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c t="s" r="B20" s="7">
         <v>32</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c t="s" r="F21" s="12">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c t="s" r="H20" s="8">
         <v>33</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c t="s" r="I21" s="14">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9">
+        <v>2</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c t="s" r="N20" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="24.75" customHeight="1">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c t="s" r="B21" s="7">
         <v>34</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c t="s" r="H21" s="8">
+        <v>31</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9">
+        <v>50</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c t="s" r="N21" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="26.25" customHeight="1">
+      <c r="K22" s="10">
+        <v>969.13999999999999</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="11">
+        <v>35</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c t="s" r="F23" s="12">
+        <v>36</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c t="s" r="I23" s="14">
+        <v>37</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="65">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1187,10 +1248,16 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:N23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
